--- a/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -66,73 +66,73 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>2.5 - 2x_1 + 1.227467525911009y_1 - 0.9748963657503934y_2</t>
-  </si>
-  <si>
-    <t>21.17525640710331</t>
+    <t>-153.36622280028044 - 2x_1 + 2.3822679001270224y_1 + 2.790890744985965y_2</t>
+  </si>
+  <si>
+    <t>155.86622280028044</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.4913961945540344</t>
-  </si>
-  <si>
-    <t>0.03672694368889117</t>
-  </si>
-  <si>
-    <t>0.06114342171436759</t>
-  </si>
-  <si>
-    <t>-2 + x_1 - 3x_2 + 17.10220482524667y_1 + 2.8874232401983075y_2</t>
-  </si>
-  <si>
-    <t>1718.3230669406294</t>
-  </si>
-  <si>
-    <t>0.8882090831603455</t>
-  </si>
-  <si>
-    <t>0.9810174854506165</t>
-  </si>
-  <si>
-    <t>0.9511505901628002</t>
-  </si>
-  <si>
-    <t>-0.9457311309735457y_1 + 0.005989188275221735y_2</t>
-  </si>
-  <si>
-    <t>-94.92617675079312</t>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>-19.06165072142568 + x_1 - 3x_2 + 0.18473337749366534y_1 + 1.5066340981848603y_2</t>
+  </si>
+  <si>
+    <t>17.06165072142568</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>68.50130563951305 - 0.6825664111258518y_1 + 0.8705664467069711y_2</t>
+  </si>
+  <si>
+    <t>-68.50130563951305</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.41356181709168294</t>
-  </si>
-  <si>
-    <t>0.34179583175513517</t>
-  </si>
-  <si>
-    <t>0.9194560986917512</t>
-  </si>
-  <si>
-    <t>8.686214215246018y_1 - 0.041377252423371425y_2</t>
-  </si>
-  <si>
-    <t>871.871172226322</t>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>3.9000000000000004</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>-57.141006133741165 + 0.5244678976311666y_1 + 0.43836118815284086y_2</t>
+  </si>
+  <si>
+    <t>56.62100613374116</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.07636940678826719</t>
-  </si>
-  <si>
-    <t>0.9333535373729153</t>
-  </si>
-  <si>
-    <t>0.4740036987495764</t>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
   </si>
   <si>
     <t>x_1</t>
@@ -147,40 +147,40 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>52.01715930759299</t>
-  </si>
-  <si>
-    <t>16.611275692327354</t>
-  </si>
-  <si>
-    <t>100.37656758184467</t>
-  </si>
-  <si>
-    <t>0.5122616766064048</t>
+    <t>53.35</t>
+  </si>
+  <si>
+    <t>19.7</t>
+  </si>
+  <si>
+    <t>104.95</t>
+  </si>
+  <si>
+    <t>3.5999999999999996</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-12.06574928087267</t>
-  </si>
-  <si>
-    <t>-3.084892128022015</t>
+    <t>2.703827086055009</t>
+  </si>
+  <si>
+    <t>-4.7187260654561145</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>1.092436401927166</t>
-  </si>
-  <si>
-    <t>1.9430524563518494</t>
-  </si>
-  <si>
-    <t>-25.10670490967991</t>
-  </si>
-  <si>
-    <t>-2.7602351972755375</t>
+    <t>18.3</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>-19.57950932279576</t>
+  </si>
+  <si>
+    <t>-30.71326851388599</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -824,12 +824,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.0545983564002297</v>
+        <v>0.9266337040478958</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.006025550962545978</v>
+        <v>2.541307030528908</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -66,73 +66,73 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-153.36622280028044 - 2x_1 + 2.3822679001270224y_1 + 2.790890744985965y_2</t>
-  </si>
-  <si>
-    <t>155.86622280028044</t>
+    <t>-170.41973666622107 - 2x_1 + 2.639932272869046y_1 - 0.6913068662834736y_2</t>
+  </si>
+  <si>
+    <t>172.91973666622107</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>8.9</t>
-  </si>
-  <si>
-    <t>9.3</t>
-  </si>
-  <si>
-    <t>-19.06165072142568 + x_1 - 3x_2 + 0.18473337749366534y_1 + 1.5066340981848603y_2</t>
-  </si>
-  <si>
-    <t>17.06165072142568</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>68.50130563951305 - 0.6825664111258518y_1 + 0.8705664467069711y_2</t>
-  </si>
-  <si>
-    <t>-68.50130563951305</t>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>-41.959717952145446 + x_1 - 3x_2 + 0.4620594394688768y_1 + 1.0869758944882593y_2</t>
+  </si>
+  <si>
+    <t>39.959717952145446</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>1.7000000000000002</t>
+  </si>
+  <si>
+    <t>-158.4935380840688 + 1.505989683447169y_1 + 0.47171570511946714y_2</t>
+  </si>
+  <si>
+    <t>158.4935380840688</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.87</t>
-  </si>
-  <si>
-    <t>3.9000000000000004</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>-57.141006133741165 + 0.5244678976311666y_1 + 0.43836118815284086y_2</t>
-  </si>
-  <si>
-    <t>56.62100613374116</t>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>8.7</t>
+  </si>
+  <si>
+    <t>-335.82230183130594 + 3.2116918415541593y_1 - 0.39544624158980535y_2</t>
+  </si>
+  <si>
+    <t>335.13230183130594</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>1.6</t>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>8.0</t>
   </si>
   <si>
     <t>x_1</t>
@@ -147,40 +147,40 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>53.35</t>
-  </si>
-  <si>
-    <t>19.7</t>
-  </si>
-  <si>
-    <t>104.95</t>
-  </si>
-  <si>
-    <t>3.5999999999999996</t>
+    <t>52.150000000000006</t>
+  </si>
+  <si>
+    <t>20.25</t>
+  </si>
+  <si>
+    <t>104.6</t>
+  </si>
+  <si>
+    <t>2.05</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>2.703827086055009</t>
-  </si>
-  <si>
-    <t>-4.7187260654561145</t>
+    <t>-0.91823374107285</t>
+  </si>
+  <si>
+    <t>-0.9080204689078307</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>18.3</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>-19.57950932279576</t>
-  </si>
-  <si>
-    <t>-30.71326851388599</t>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>20.299999999999997</t>
+  </si>
+  <si>
+    <t>-40.006237631134</t>
+  </si>
+  <si>
+    <t>-4.185880024684046</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -824,12 +824,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.9266337040478958</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>2.541307030528908</v>
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -66,75 +66,75 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-170.41973666622107 - 2x_1 + 2.639932272869046y_1 - 0.6913068662834736y_2</t>
-  </si>
-  <si>
-    <t>172.91973666622107</t>
+    <t>-534.0955555555555 - 2x_1 + 6.2333333333333325y_1 + 0.744444444444444y_2</t>
+  </si>
+  <si>
+    <t>536.5955555555555</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.77</t>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>-853.0811111111111 + x_1 - 3x_2 + 8.366666666666667y_1 + 3.7888888888888888y_2</t>
+  </si>
+  <si>
+    <t>851.0811111111111</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>10.159999999999998 - 0.09999999999999998y_1 + 0.3y_2</t>
+  </si>
+  <si>
+    <t>-10.159999999999998</t>
+  </si>
+  <si>
+    <t>J_0_LP_v</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>5.300000000000001</t>
+  </si>
+  <si>
+    <t>-883.4722222222221 + 8.633333333333331y_1 + 1.8777777777777769y_2</t>
+  </si>
+  <si>
+    <t>882.7022222222221</t>
+  </si>
+  <si>
+    <t>J_Ne_L0_v</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>8.0</t>
   </si>
   <si>
     <t>5.0</t>
   </si>
   <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>-41.959717952145446 + x_1 - 3x_2 + 0.4620594394688768y_1 + 1.0869758944882593y_2</t>
-  </si>
-  <si>
-    <t>39.959717952145446</t>
-  </si>
-  <si>
-    <t>0.46</t>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>1.7000000000000002</t>
-  </si>
-  <si>
-    <t>-158.4935380840688 + 1.505989683447169y_1 + 0.47171570511946714y_2</t>
-  </si>
-  <si>
-    <t>158.4935380840688</t>
-  </si>
-  <si>
-    <t>J_0_LP_v</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>8.7</t>
-  </si>
-  <si>
-    <t>-335.82230183130594 + 3.2116918415541593y_1 - 0.39544624158980535y_2</t>
-  </si>
-  <si>
-    <t>335.13230183130594</t>
-  </si>
-  <si>
-    <t>J_Ne_L0_v</t>
-  </si>
-  <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
     <t>x_1</t>
   </si>
   <si>
@@ -147,40 +147,40 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>52.150000000000006</t>
-  </si>
-  <si>
-    <t>20.25</t>
-  </si>
-  <si>
-    <t>104.6</t>
-  </si>
-  <si>
-    <t>2.05</t>
+    <t>51.550000000000004</t>
+  </si>
+  <si>
+    <t>18.099999999999998</t>
+  </si>
+  <si>
+    <t>102.2</t>
+  </si>
+  <si>
+    <t>0.2</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-0.91823374107285</t>
-  </si>
-  <si>
-    <t>-0.9080204689078307</t>
+    <t>-11.172666666666665</t>
+  </si>
+  <si>
+    <t>-4.604222222222221</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>4.9</t>
-  </si>
-  <si>
-    <t>20.299999999999997</t>
-  </si>
-  <si>
-    <t>-40.006237631134</t>
-  </si>
-  <si>
-    <t>-4.185880024684046</t>
+    <t>0.8000000000000007</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>-180.45</t>
+  </si>
+  <si>
+    <t>-56.81666666666666</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -824,12 +824,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2.55</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.48</v>
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
